--- a/classfiers/mega/multinomialNB/smote/mega-multinomialNB-smote-results.xlsx
+++ b/classfiers/mega/multinomialNB/smote/mega-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5728476821192053</v>
+        <v>0.628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6189189189189189</v>
+        <v>0.6893491124260355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5765800131481768</v>
+        <v>0.670421515002368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6189189189189189</v>
+        <v>0.6893491124260356</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8406593406593407</v>
+        <v>0.7633136094674556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8351351351351352</v>
+        <v>0.7633136094674556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8351242959727082</v>
+        <v>0.7633136094674556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8351351351351352</v>
+        <v>0.7633136094674557</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7632850241545893</v>
+        <v>0.7315789473684211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7945945945945947</v>
+        <v>0.7603550295857988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7938658221909454</v>
+        <v>0.7594263771605317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7945945945945947</v>
+        <v>0.7603550295857988</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8830409356725146</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.854054054054054</v>
+        <v>0.8550295857988166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8538448033707864</v>
+        <v>0.8539544809220214</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8540540540540541</v>
+        <v>0.8550295857988166</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9542857142857143</v>
+        <v>0.8930817610062893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9297297297297298</v>
+        <v>0.8698224852071006</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9296783625730995</v>
+        <v>0.8697084384636949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9297297297297298</v>
+        <v>0.8698224852071006</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.802823739378273</v>
+        <v>0.7889091492827189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8064864864864866</v>
+        <v>0.7875739644970414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7978186594511433</v>
+        <v>0.7833648842032144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8064864864864866</v>
+        <v>0.7875739644970414</v>
       </c>
     </row>
   </sheetData>
